--- a/data/trans_orig/CONS_OTR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_OTR-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en País Vasco</t>
+          <t>Consumo de otros medicamentos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en Andalucia</t>
+          <t>Consumo de otros medicamentos en Andalucia (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en C.Valenciana</t>
+          <t>Consumo de otros medicamentos en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_OTR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_OTR-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24779</t>
+          <t>21772</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21354</t>
+          <t>18662</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28898</t>
+          <t>25513</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38064</t>
+          <t>35992</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34284</t>
+          <t>31858</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>42579</t>
+          <t>40564</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>33,33%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>62843</t>
+          <t>57763</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>56959</t>
+          <t>52711</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>68769</t>
+          <t>63738</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>31,24%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63285</t>
+          <t>60770</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59166</t>
+          <t>57029</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66710</t>
+          <t>63880</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>71,86%</t>
+          <t>73,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,19%</t>
+          <t>69,09%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>77,39%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>89680</t>
+          <t>85460</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>85165</t>
+          <t>80888</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>93460</t>
+          <t>89594</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>70,37%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>66,67%</t>
+          <t>66,6%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>73,16%</t>
+          <t>73,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>152966</t>
+          <t>146231</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>147040</t>
+          <t>140256</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>158850</t>
+          <t>151283</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>70,88%</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>68,13%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>73,61%</t>
+          <t>74,16%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87821</t>
+          <t>81225</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81424</t>
+          <t>74155</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>95859</t>
+          <t>88516</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78033</t>
+          <t>78354</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>71114</t>
+          <t>70520</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>85639</t>
+          <t>85635</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>165854</t>
+          <t>159578</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>156768</t>
+          <t>150242</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>176489</t>
+          <t>169601</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>365670</t>
+          <t>380454</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>357632</t>
+          <t>373163</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>372067</t>
+          <t>387524</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>80,63%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>80,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,05%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>353769</t>
+          <t>366003</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>346163</t>
+          <t>358722</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>360688</t>
+          <t>373837</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>81,93%</t>
+          <t>82,37%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>80,73%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>83,53%</t>
+          <t>84,13%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>719439</t>
+          <t>746457</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>708804</t>
+          <t>736434</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>728525</t>
+          <t>755793</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>81,27%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>80,06%</t>
+          <t>81,28%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>82,29%</t>
+          <t>83,42%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22201</t>
+          <t>21858</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18244</t>
+          <t>18284</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26057</t>
+          <t>25943</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23809</t>
+          <t>27295</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20093</t>
+          <t>23434</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27513</t>
+          <t>31768</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>46010</t>
+          <t>49153</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>40970</t>
+          <t>44091</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>51794</t>
+          <t>55284</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>13,7%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>129424</t>
+          <t>153703</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>125568</t>
+          <t>149618</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>133381</t>
+          <t>157277</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>85,22%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>170428</t>
+          <t>200699</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166724</t>
+          <t>196226</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>174144</t>
+          <t>204560</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,84%</t>
+          <t>86,07%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>299853</t>
+          <t>354402</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>294069</t>
+          <t>348271</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>304893</t>
+          <t>359464</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>86,7%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>85,02%</t>
+          <t>86,3%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>89,07%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>134801</t>
+          <t>124854</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>126482</t>
+          <t>116055</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>144537</t>
+          <t>133662</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>139906</t>
+          <t>141641</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>130102</t>
+          <t>133192</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>148979</t>
+          <t>151985</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>274707</t>
+          <t>266494</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>261578</t>
+          <t>253417</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>288073</t>
+          <t>279577</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>18,47%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>558380</t>
+          <t>594927</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>548644</t>
+          <t>586119</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>566699</t>
+          <t>603726</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>80,55%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,15%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>81,75%</t>
+          <t>83,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>613878</t>
+          <t>652162</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>604805</t>
+          <t>641818</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>623682</t>
+          <t>660611</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>81,44%</t>
+          <t>82,16%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>80,85%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>82,74%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1172258</t>
+          <t>1247090</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1158892</t>
+          <t>1234007</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1185387</t>
+          <t>1260167</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>81,01%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>81,92%</t>
+          <t>83,26%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7029</t>
+          <t>6680</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18546</t>
+          <t>18207</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>48616</t>
+          <t>49122</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>76590</t>
+          <t>77964</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>58719</t>
+          <t>59311</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>88550</t>
+          <t>91488</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>14,65%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>210748</t>
+          <t>211087</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>222265</t>
+          <t>222614</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>92,06%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>318500</t>
+          <t>317126</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>346474</t>
+          <t>345968</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>80,61%</t>
+          <t>80,27%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>87,57%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>535834</t>
+          <t>532896</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>565665</t>
+          <t>565073</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>85,35%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>90,5%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10249</t>
+          <t>10776</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30242</t>
+          <t>29717</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43138</t>
+          <t>42494</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93708</t>
+          <t>94216</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>61784</t>
+          <t>63494</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>115723</t>
+          <t>118876</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,25%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1379151</t>
+          <t>1379676</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1399144</t>
+          <t>1398617</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1292103</t>
+          <t>1291595</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1342673</t>
+          <t>1343317</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2679481</t>
+          <t>2676328</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2733420</t>
+          <t>2731710</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,73%</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4727</t>
+          <t>5858</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21732</t>
+          <t>21450</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>40951</t>
+          <t>41951</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>21760</t>
+          <t>21640</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>41850</t>
+          <t>41672</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>455074</t>
+          <t>453943</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>402423</t>
+          <t>401423</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>421642</t>
+          <t>421924</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>861325</t>
+          <t>861503</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>881415</t>
+          <t>881535</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,6%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20638</t>
+          <t>19839</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44699</t>
+          <t>43625</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>119937</t>
+          <t>116845</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>196068</t>
+          <t>190531</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>145848</t>
+          <t>152904</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>227064</t>
+          <t>228980</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,3%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2053789</t>
+          <t>2054863</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2077850</t>
+          <t>2078649</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2028208</t>
+          <t>2033745</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2104339</t>
+          <t>2107431</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4095699</t>
+          <t>4093783</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4176915</t>
+          <t>4169859</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>96,46%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_OTR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_OTR-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de otros medicamentos en Andalucia (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21772</t>
+          <t>12254</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18662</t>
+          <t>7139</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25513</t>
+          <t>19558</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35992</t>
+          <t>62243</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31858</t>
+          <t>50728</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>40564</t>
+          <t>73269</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>118</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>57763</t>
+          <t>74498</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>52711</t>
+          <t>62704</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>63738</t>
+          <t>88660</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>12,87%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60770</t>
+          <t>244126</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57029</t>
+          <t>236822</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63880</t>
+          <t>249241</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,62%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,09%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>592</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85460</t>
+          <t>370354</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>80888</t>
+          <t>359328</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>89594</t>
+          <t>381869</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>70,37%</t>
+          <t>85,61%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>66,6%</t>
+          <t>83,06%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>73,77%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>868</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>146231</t>
+          <t>614479</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>140256</t>
+          <t>600317</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>151283</t>
+          <t>626273</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>71,68%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>68,76%</t>
+          <t>87,13%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>74,16%</t>
+          <t>90,9%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>688977</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>688977</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>688977</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81225</t>
+          <t>22078</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74155</t>
+          <t>14433</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88516</t>
+          <t>31668</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78354</t>
+          <t>77296</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>70520</t>
+          <t>62881</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>85635</t>
+          <t>96003</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>128</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>159578</t>
+          <t>99374</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>150242</t>
+          <t>82423</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>169601</t>
+          <t>120016</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>380454</t>
+          <t>1265609</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>373163</t>
+          <t>1256019</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>387524</t>
+          <t>1273254</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>98,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>366003</t>
+          <t>1193445</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>358722</t>
+          <t>1174738</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>373837</t>
+          <t>1207860</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>82,37%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>80,73%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>84,13%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4190</t>
+          <t>2622</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>746457</t>
+          <t>2459054</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>736434</t>
+          <t>2438412</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>755793</t>
+          <t>2476005</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>82,39%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>81,28%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>96,78%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21858</t>
+          <t>877</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18284</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25943</t>
+          <t>5411</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27295</t>
+          <t>34954</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23434</t>
+          <t>25437</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31768</t>
+          <t>47490</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>45</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>49153</t>
+          <t>35832</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>44091</t>
+          <t>25540</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>55284</t>
+          <t>48252</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>486</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>153703</t>
+          <t>509002</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>149618</t>
+          <t>504468</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>157277</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,22%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>622</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>200699</t>
+          <t>460952</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>196226</t>
+          <t>448416</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>204560</t>
+          <t>470469</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>86,07%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>354402</t>
+          <t>969954</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>348271</t>
+          <t>957534</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>359464</t>
+          <t>980246</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>87,82%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>86,3%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>89,07%</t>
+          <t>97,46%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>124854</t>
+          <t>35210</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>116055</t>
+          <t>25152</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>133662</t>
+          <t>46975</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>141641</t>
+          <t>174494</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>133192</t>
+          <t>153348</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>151985</t>
+          <t>195381</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>291</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>266494</t>
+          <t>209703</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>253417</t>
+          <t>186529</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>279577</t>
+          <t>237952</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3287</t>
+          <t>1847</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>594927</t>
+          <t>2018736</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>586119</t>
+          <t>2006971</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>603726</t>
+          <t>2028794</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>83,88%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3611</t>
+          <t>2751</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>652162</t>
+          <t>2024750</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>641818</t>
+          <t>2003863</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>660611</t>
+          <t>2045896</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>82,16%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,85%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>93,03%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>6898</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1247090</t>
+          <t>4043487</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1234007</t>
+          <t>4015238</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1260167</t>
+          <t>4066661</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>82,39%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>83,26%</t>
+          <t>95,61%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4889</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4253190</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4253190</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4253190</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en Andalucia (tasa de respuesta: 99,92%)</t>
+          <t>Consumo de otros medicamentos en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11490</t>
+          <t>38111</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6680</t>
+          <t>31068</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18207</t>
+          <t>46091</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>59991</t>
+          <t>36050</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>49122</t>
+          <t>28600</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>77964</t>
+          <t>43199</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>199</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>71480</t>
+          <t>74161</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>59311</t>
+          <t>63583</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>91488</t>
+          <t>85098</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>17,39%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>217804</t>
+          <t>177685</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>211087</t>
+          <t>169705</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>222614</t>
+          <t>184728</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>82,34%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>78,64%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>558</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>335099</t>
+          <t>237631</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>317126</t>
+          <t>230482</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>345968</t>
+          <t>245081</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>80,27%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,57%</t>
+          <t>89,55%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>998</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>552904</t>
+          <t>415317</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>532896</t>
+          <t>404380</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>565073</t>
+          <t>425895</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>84,85%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>85,35%</t>
+          <t>82,61%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>87,01%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>624384</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>624384</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>624384</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19653</t>
+          <t>86610</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10776</t>
+          <t>74372</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29717</t>
+          <t>100862</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>166</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70819</t>
+          <t>90421</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42494</t>
+          <t>76647</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>94216</t>
+          <t>105108</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>359</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>90472</t>
+          <t>177030</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>63494</t>
+          <t>158804</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>118876</t>
+          <t>196825</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>11,37%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1389740</t>
+          <t>776530</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1379676</t>
+          <t>762278</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1398617</t>
+          <t>788768</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>88,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1357</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1314992</t>
+          <t>777759</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1291595</t>
+          <t>763072</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1343317</t>
+          <t>791533</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>87,89%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2704732</t>
+          <t>1554289</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2676328</t>
+          <t>1534494</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2731710</t>
+          <t>1572515</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>88,63%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>90,83%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>863140</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>863140</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>863140</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1731319</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1731319</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1731319</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>28453</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21898</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5858</t>
+          <t>37922</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29896</t>
+          <t>34243</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21450</t>
+          <t>25619</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41951</t>
+          <t>43596</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>121</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>30841</t>
+          <t>62696</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>21640</t>
+          <t>52137</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>41672</t>
+          <t>75550</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>9,5%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>592</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>458856</t>
+          <t>350100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>453943</t>
+          <t>340631</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>356655</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>642</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>413478</t>
+          <t>382632</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>401423</t>
+          <t>373279</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>421924</t>
+          <t>391256</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>872334</t>
+          <t>732732</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>861503</t>
+          <t>719878</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>881535</t>
+          <t>743291</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>90,5%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>93,45%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32087</t>
+          <t>153174</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19839</t>
+          <t>137351</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43625</t>
+          <t>171992</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>160706</t>
+          <t>160713</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>116845</t>
+          <t>143158</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>190531</t>
+          <t>181144</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>679</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>192793</t>
+          <t>313887</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>152904</t>
+          <t>289073</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>228980</t>
+          <t>336092</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>2477</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2066401</t>
+          <t>1304314</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2054863</t>
+          <t>1285496</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2078649</t>
+          <t>1320137</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>2557</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2063570</t>
+          <t>1398024</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2033745</t>
+          <t>1377593</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2107431</t>
+          <t>1415579</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4598</t>
+          <t>5034</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4129970</t>
+          <t>2702338</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4093783</t>
+          <t>2680133</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4169859</t>
+          <t>2727152</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>90,42%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>1457488</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>1457488</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>1457488</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4889</t>
+          <t>5713</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4322763</t>
+          <t>3016225</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4322763</t>
+          <t>3016225</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4322763</t>
+          <t>3016225</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en C.Valenciana (tasa de respuesta: 99,77%)</t>
+          <t>Consumo de otros medicamentos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38111</t>
+          <t>21772</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31068</t>
+          <t>18662</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46091</t>
+          <t>25513</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>229</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36050</t>
+          <t>35992</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28600</t>
+          <t>31858</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43199</t>
+          <t>40564</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>371</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>74161</t>
+          <t>57763</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>63583</t>
+          <t>52711</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>85098</t>
+          <t>63738</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>31,24%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>361</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>177685</t>
+          <t>60770</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>169705</t>
+          <t>57029</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>184728</t>
+          <t>63880</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,34%</t>
+          <t>73,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,64%</t>
+          <t>69,09%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>77,39%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>526</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>237631</t>
+          <t>85460</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>230482</t>
+          <t>80888</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>245081</t>
+          <t>89594</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,83%</t>
+          <t>70,37%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,22%</t>
+          <t>66,6%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,55%</t>
+          <t>73,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>887</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>415317</t>
+          <t>146231</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>404380</t>
+          <t>140256</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>425895</t>
+          <t>151283</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>84,85%</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>82,61%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,01%</t>
+          <t>74,16%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>497</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86610</t>
+          <t>81225</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74372</t>
+          <t>74155</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>100862</t>
+          <t>88516</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>463</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90421</t>
+          <t>78354</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>76647</t>
+          <t>70520</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>105108</t>
+          <t>85635</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>960</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>177030</t>
+          <t>159578</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>158804</t>
+          <t>150242</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>196825</t>
+          <t>169601</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>776530</t>
+          <t>380454</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>762278</t>
+          <t>373163</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>788768</t>
+          <t>387524</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>80,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>777759</t>
+          <t>366003</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>763072</t>
+          <t>358722</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>791533</t>
+          <t>373837</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>82,37%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,89%</t>
+          <t>80,73%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>84,13%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2802</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1554289</t>
+          <t>746457</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1534494</t>
+          <t>736434</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1572515</t>
+          <t>755793</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>81,28%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>83,42%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>863140</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>863140</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>863140</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3161</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1731319</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1731319</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1731319</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28453</t>
+          <t>21858</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21898</t>
+          <t>18284</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37922</t>
+          <t>25943</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34243</t>
+          <t>27295</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25619</t>
+          <t>23434</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>43596</t>
+          <t>31768</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>285</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>62696</t>
+          <t>49153</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>52137</t>
+          <t>44091</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>75550</t>
+          <t>55284</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>13,7%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>776</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>350100</t>
+          <t>153703</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>340631</t>
+          <t>149618</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>356655</t>
+          <t>157277</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>85,22%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>382632</t>
+          <t>200699</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>373279</t>
+          <t>196226</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>391256</t>
+          <t>204560</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>86,07%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>1821</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>732732</t>
+          <t>354402</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>719878</t>
+          <t>348271</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>743291</t>
+          <t>359464</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>86,3%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>89,07%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>770</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>153174</t>
+          <t>124854</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>137351</t>
+          <t>116055</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>171992</t>
+          <t>133662</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>846</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>160713</t>
+          <t>141641</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>143158</t>
+          <t>133192</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>181144</t>
+          <t>151985</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>313887</t>
+          <t>266494</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>289073</t>
+          <t>253417</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>336092</t>
+          <t>279577</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>18,47%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2477</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1304314</t>
+          <t>594927</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1285496</t>
+          <t>586119</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1320137</t>
+          <t>603726</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,49%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>83,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1398024</t>
+          <t>652162</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1377593</t>
+          <t>641818</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1415579</t>
+          <t>660611</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>82,16%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>80,85%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5034</t>
+          <t>6898</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2702338</t>
+          <t>1247090</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2680133</t>
+          <t>1234007</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2727152</t>
+          <t>1260167</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>83,26%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2846</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1457488</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1457488</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1457488</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3016225</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3016225</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3016225</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
